--- a/Discharge/Station3_2021-06-18_1300.xlsx
+++ b/Discharge/Station3_2021-06-18_1300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEB0AB2-ADE1-4D2A-BDE5-897D7BB355C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47CDE5-4E4D-41DA-B981-8300AD5EBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="910" yWindow="1210" windowWidth="9380" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,7 +407,7 @@
       </c>
       <c r="F2">
         <f>SUM(E2:E20)</f>
-        <v>9.4199999999999948E-4</v>
+        <v>1.5359999999999994E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -425,8 +425,8 @@
         <v>0.18</v>
       </c>
       <c r="E3">
-        <f>(D3-D2)*(B2/100)*C3</f>
-        <v>0</v>
+        <f>(D3-D2)*(B3/100)*C3</f>
+        <v>2.04E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -444,8 +444,8 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="E4">
-        <f>(D4-D3)*(B3/100)*C4</f>
-        <v>9.6000000000000097E-5</v>
+        <f t="shared" ref="E4:E9" si="0">(D4-D3)*(B4/100)*C4</f>
+        <v>1.9200000000000019E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -463,8 +463,8 @@
         <v>0.24</v>
       </c>
       <c r="E5">
-        <f>(D5-D4)*(B4/100)*C5</f>
-        <v>2.1599999999999978E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.3999999999999957E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -478,11 +478,11 @@
         <v>0.21</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D19" si="0">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D9" si="1">(A6/100+(A7/100-A6/100)/2)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="E6">
-        <f>(D6-D5)*(B5/100)*C6</f>
+        <f t="shared" si="0"/>
         <v>8.4000000000000069E-4</v>
       </c>
     </row>
@@ -497,12 +497,12 @@
         <v>0.3</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="E7">
-        <f>(D7-D6)*(B6/100)*C7</f>
-        <v>1.4999999999999981E-3</v>
+        <v>8.9999999999999867E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -516,21 +516,21 @@
         <v>0.19</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
       <c r="E8">
-        <f>(D8-D7)*(B7/100)*C8</f>
-        <v>-1.7099999999999995E-3</v>
+        <f>(D8-D7)*(B8/100)*C8</f>
+        <v>-1.1399999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>(D9-D8)*(B8/100)*C9</f>
         <v>0</v>
       </c>
     </row>
